--- a/dataFiles/gummyBears_Fall2023.xlsx
+++ b/dataFiles/gummyBears_Fall2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neilhatfield/Documents/GitHub/STAT461/dataFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC6EE7A-6941-9547-A84A-D2BD4903D265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB6F1DE-91AA-2543-AF82-A4805F63C401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{E5EAD27B-2944-4845-B8F8-033E68CF7015}"/>
   </bookViews>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAAE03D-3F99-A044-BB34-DB3ACC6BC5C0}">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:A122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,6 +660,9 @@
       <c r="C13">
         <v>3</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="E13">
         <v>346</v>
       </c>
@@ -674,6 +677,9 @@
       <c r="C14">
         <v>3</v>
       </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
       <c r="E14">
         <v>218</v>
       </c>
@@ -688,6 +694,9 @@
       <c r="C15">
         <v>3</v>
       </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
       <c r="E15">
         <v>152</v>
       </c>
@@ -702,6 +711,9 @@
       <c r="C16">
         <v>3</v>
       </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
       <c r="E16">
         <v>146</v>
       </c>
@@ -716,6 +728,9 @@
       <c r="C17">
         <v>3</v>
       </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
       <c r="E17">
         <v>250</v>
       </c>
@@ -730,6 +745,9 @@
       <c r="C18">
         <v>3</v>
       </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
       <c r="E18">
         <v>238</v>
       </c>
@@ -744,6 +762,9 @@
       <c r="C19">
         <v>3</v>
       </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
       <c r="E19">
         <v>210</v>
       </c>
@@ -758,6 +779,9 @@
       <c r="C20">
         <v>3</v>
       </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
       <c r="E20">
         <v>90</v>
       </c>
@@ -772,6 +796,9 @@
       <c r="C21">
         <v>3</v>
       </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
       <c r="E21">
         <v>344</v>
       </c>
@@ -786,6 +813,9 @@
       <c r="C22">
         <v>3</v>
       </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
       <c r="E22">
         <v>330</v>
       </c>
@@ -800,6 +830,9 @@
       <c r="C23">
         <v>3</v>
       </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
       <c r="E23">
         <v>160</v>
       </c>
@@ -2123,6 +2156,9 @@
       <c r="C101">
         <v>12</v>
       </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
       <c r="E101">
         <v>536</v>
       </c>
@@ -2137,6 +2173,9 @@
       <c r="C102">
         <v>12</v>
       </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
       <c r="E102">
         <v>292</v>
       </c>
@@ -2151,6 +2190,9 @@
       <c r="C103">
         <v>12</v>
       </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
       <c r="E103">
         <v>477</v>
       </c>
@@ -2165,6 +2207,9 @@
       <c r="C104">
         <v>12</v>
       </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
       <c r="E104">
         <v>356</v>
       </c>
@@ -2179,6 +2224,9 @@
       <c r="C105">
         <v>12</v>
       </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
       <c r="E105">
         <v>320</v>
       </c>
@@ -2193,6 +2241,9 @@
       <c r="C106">
         <v>12</v>
       </c>
+      <c r="D106">
+        <v>6</v>
+      </c>
       <c r="E106">
         <v>329</v>
       </c>
@@ -2207,6 +2258,9 @@
       <c r="C107">
         <v>12</v>
       </c>
+      <c r="D107">
+        <v>7</v>
+      </c>
       <c r="E107">
         <v>256</v>
       </c>
@@ -2221,6 +2275,9 @@
       <c r="C108">
         <v>12</v>
       </c>
+      <c r="D108">
+        <v>8</v>
+      </c>
       <c r="E108">
         <v>386</v>
       </c>
@@ -2235,6 +2292,9 @@
       <c r="C109">
         <v>12</v>
       </c>
+      <c r="D109">
+        <v>9</v>
+      </c>
       <c r="E109">
         <v>341</v>
       </c>
@@ -2249,6 +2309,9 @@
       <c r="C110">
         <v>12</v>
       </c>
+      <c r="D110">
+        <v>10</v>
+      </c>
       <c r="E110">
         <v>407</v>
       </c>
@@ -2262,6 +2325,9 @@
       </c>
       <c r="C111">
         <v>12</v>
+      </c>
+      <c r="D111">
+        <v>11</v>
       </c>
       <c r="E111">
         <v>287</v>
